--- a/data/demography/AllHerdsStartEndDates_210421.xlsx
+++ b/data/demography/AllHerdsStartEndDates_210421.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clayton.lamb/Google Drive/Documents/University/PDF/PDF Analyses/KZ-penning/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clayton.lamb/Google Drive/Documents/University/PDF/PDF Analyses/KZ-penning/data/demography/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F82A7D61-8F64-E445-B698-60DD23C7B91B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D834E587-3E90-6E45-92B6-17BC5012DB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="740" windowWidth="29200" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllHerdsStartEndDates_210421" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AllHerdsStartEndDates_210421!$A$1:$I$597</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2984" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2989" uniqueCount="624">
   <si>
     <t>Sex</t>
   </si>
@@ -1889,6 +1892,9 @@
   </si>
   <si>
     <t>CN999Sa</t>
+  </si>
+  <si>
+    <t>CN351Ka</t>
   </si>
 </sst>
 </file>
@@ -2730,9 +2736,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I596"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I597"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G372" sqref="G372"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2768,7 +2777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2794,7 +2803,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2820,7 +2829,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2846,7 +2855,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2872,7 +2881,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2898,7 +2907,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2924,7 +2933,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2950,7 +2959,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2976,7 +2985,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3054,7 +3063,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -3080,7 +3089,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -3140,25 +3149,25 @@
         <v>10</v>
       </c>
       <c r="D16" s="1">
-        <v>37592</v>
+        <v>37704</v>
       </c>
       <c r="E16" s="1">
-        <v>38460</v>
+        <v>38474</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H16" t="s">
         <v>24</v>
       </c>
       <c r="I16">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -3184,7 +3193,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -3210,7 +3219,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -3236,7 +3245,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -3270,22 +3279,22 @@
         <v>10</v>
       </c>
       <c r="D21" s="1">
-        <v>37703</v>
+        <v>38799</v>
       </c>
       <c r="E21" s="1">
-        <v>38460</v>
+        <v>39379</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H21" t="s">
         <v>24</v>
       </c>
       <c r="I21">
-        <v>2003</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -3296,13 +3305,13 @@
         <v>10</v>
       </c>
       <c r="D22" s="1">
-        <v>37704</v>
+        <v>39176</v>
       </c>
       <c r="E22" s="1">
-        <v>38474</v>
+        <v>39620</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s">
         <v>23</v>
@@ -3311,10 +3320,10 @@
         <v>24</v>
       </c>
       <c r="I22">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -3340,7 +3349,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -3366,7 +3375,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -3392,7 +3401,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -3418,7 +3427,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -3444,7 +3453,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -3470,7 +3479,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -3496,7 +3505,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3522,7 +3531,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -3548,7 +3557,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -3582,13 +3591,13 @@
         <v>10</v>
       </c>
       <c r="D33" s="1">
-        <v>38799</v>
+        <v>39521</v>
       </c>
       <c r="E33" s="1">
-        <v>39379</v>
+        <v>39867</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G33" t="s">
         <v>23</v>
@@ -3597,10 +3606,10 @@
         <v>24</v>
       </c>
       <c r="I33">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -3626,7 +3635,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -3652,7 +3661,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -3678,7 +3687,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -3712,13 +3721,13 @@
         <v>10</v>
       </c>
       <c r="D38" s="1">
-        <v>39176</v>
+        <v>39521</v>
       </c>
       <c r="E38" s="1">
-        <v>39620</v>
+        <v>39943</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G38" t="s">
         <v>23</v>
@@ -3727,7 +3736,7 @@
         <v>24</v>
       </c>
       <c r="I38">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -3738,25 +3747,25 @@
         <v>10</v>
       </c>
       <c r="D39" s="1">
-        <v>39176</v>
+        <v>39856</v>
       </c>
       <c r="E39" s="1">
-        <v>39856</v>
+        <v>40487</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H39" t="s">
         <v>24</v>
       </c>
       <c r="I39">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -3782,7 +3791,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -3808,7 +3817,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -3834,7 +3843,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -3860,7 +3869,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -3886,7 +3895,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -3912,7 +3921,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -3938,7 +3947,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -3972,13 +3981,13 @@
         <v>10</v>
       </c>
       <c r="D48" s="1">
-        <v>39521</v>
+        <v>40620</v>
       </c>
       <c r="E48" s="1">
-        <v>39867</v>
+        <v>41032</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="G48" t="s">
         <v>23</v>
@@ -3987,7 +3996,7 @@
         <v>24</v>
       </c>
       <c r="I48">
-        <v>2008</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -3998,13 +4007,13 @@
         <v>10</v>
       </c>
       <c r="D49" s="1">
-        <v>39521</v>
+        <v>40620</v>
       </c>
       <c r="E49" s="1">
-        <v>39943</v>
+        <v>40881</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s">
         <v>23</v>
@@ -4013,7 +4022,7 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>2008</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -4024,22 +4033,22 @@
         <v>10</v>
       </c>
       <c r="D50" s="1">
-        <v>39801</v>
+        <v>40631</v>
       </c>
       <c r="E50" s="1">
-        <v>40257</v>
+        <v>40950</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H50" t="s">
         <v>24</v>
       </c>
       <c r="I50">
-        <v>2008</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -4050,22 +4059,22 @@
         <v>10</v>
       </c>
       <c r="D51" s="1">
-        <v>39801</v>
+        <v>41292</v>
       </c>
       <c r="E51" s="1">
-        <v>40640</v>
+        <v>43140</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>487</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H51" t="s">
         <v>24</v>
       </c>
       <c r="I51">
-        <v>2008</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -4076,25 +4085,25 @@
         <v>10</v>
       </c>
       <c r="D52" s="1">
-        <v>39802</v>
+        <v>41725</v>
       </c>
       <c r="E52" s="1">
-        <v>40640</v>
+        <v>42480</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>489</v>
       </c>
       <c r="G52" t="s">
         <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>24</v>
+        <v>378</v>
       </c>
       <c r="I52">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -4120,7 +4129,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -4146,7 +4155,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -4172,7 +4181,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -4198,7 +4207,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -4224,7 +4233,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -4250,7 +4259,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -4276,7 +4285,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -4302,7 +4311,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -4328,7 +4337,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -4362,25 +4371,25 @@
         <v>10</v>
       </c>
       <c r="D63" s="1">
-        <v>39856</v>
+        <v>41292</v>
       </c>
       <c r="E63" s="1">
-        <v>40487</v>
+        <v>41993</v>
       </c>
       <c r="F63" t="s">
-        <v>77</v>
+        <v>491</v>
       </c>
       <c r="G63" t="s">
         <v>23</v>
       </c>
       <c r="H63" t="s">
-        <v>24</v>
+        <v>378</v>
       </c>
       <c r="I63">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -4406,7 +4415,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -4432,7 +4441,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -4458,7 +4467,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -4484,7 +4493,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -4510,7 +4519,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -4536,7 +4545,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -4562,7 +4571,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -4588,7 +4597,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -4614,7 +4623,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -4640,7 +4649,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -4674,22 +4683,22 @@
         <v>10</v>
       </c>
       <c r="D75" s="1">
-        <v>40620</v>
+        <v>41726</v>
       </c>
       <c r="E75" s="1">
-        <v>41032</v>
+        <v>41830</v>
       </c>
       <c r="F75" t="s">
-        <v>89</v>
+        <v>493</v>
       </c>
       <c r="G75" t="s">
         <v>23</v>
       </c>
       <c r="H75" t="s">
-        <v>24</v>
+        <v>378</v>
       </c>
       <c r="I75">
-        <v>2011</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -4700,13 +4709,13 @@
         <v>10</v>
       </c>
       <c r="D76" s="1">
-        <v>40620</v>
+        <v>42081</v>
       </c>
       <c r="E76" s="1">
-        <v>40881</v>
+        <v>42931</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
+        <v>494</v>
       </c>
       <c r="G76" t="s">
         <v>23</v>
@@ -4715,7 +4724,7 @@
         <v>24</v>
       </c>
       <c r="I76">
-        <v>2011</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -4726,13 +4735,13 @@
         <v>10</v>
       </c>
       <c r="D77" s="1">
-        <v>40631</v>
+        <v>42081</v>
       </c>
       <c r="E77" s="1">
-        <v>40950</v>
+        <v>44173</v>
       </c>
       <c r="F77" t="s">
-        <v>91</v>
+        <v>495</v>
       </c>
       <c r="G77" t="s">
         <v>23</v>
@@ -4741,10 +4750,10 @@
         <v>24</v>
       </c>
       <c r="I77">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -4770,7 +4779,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -4796,7 +4805,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -4830,25 +4839,25 @@
         <v>10</v>
       </c>
       <c r="D81" s="1">
-        <v>41292</v>
+        <v>40631</v>
       </c>
       <c r="E81" s="1">
-        <v>41363</v>
+        <v>42765</v>
       </c>
       <c r="F81" t="s">
-        <v>95</v>
+        <v>497</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H81" t="s">
         <v>24</v>
       </c>
       <c r="I81">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -4874,7 +4883,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -4900,7 +4909,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -4926,7 +4935,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -4952,7 +4961,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -4978,7 +4987,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -5004,7 +5013,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -5030,7 +5039,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -5056,7 +5065,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -5082,7 +5091,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -5108,7 +5117,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -5134,7 +5143,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -5160,7 +5169,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -5186,7 +5195,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -5212,7 +5221,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -5238,7 +5247,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -5264,7 +5273,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -5290,7 +5299,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -5316,7 +5325,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -5342,7 +5351,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -5368,7 +5377,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -5394,7 +5403,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -5420,7 +5429,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -5446,7 +5455,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -5472,7 +5481,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -5498,7 +5507,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -5524,7 +5533,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -5550,7 +5559,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -5576,7 +5585,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -5602,7 +5611,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -5628,7 +5637,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -5654,7 +5663,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -5680,7 +5689,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -5706,7 +5715,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -5732,7 +5741,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -5758,7 +5767,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -5784,7 +5793,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -5810,7 +5819,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -5836,7 +5845,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -5862,7 +5871,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -5888,7 +5897,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -5914,7 +5923,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -5940,7 +5949,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -5966,7 +5975,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -5992,7 +6001,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>9</v>
       </c>
@@ -6018,7 +6027,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -6044,7 +6053,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -6070,7 +6079,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -6096,7 +6105,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -6122,7 +6131,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -6148,7 +6157,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -6174,7 +6183,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>9</v>
       </c>
@@ -6200,7 +6209,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -6226,7 +6235,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -6252,7 +6261,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -6278,7 +6287,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -6304,7 +6313,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>9</v>
       </c>
@@ -6330,7 +6339,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -6356,7 +6365,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -6382,7 +6391,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -6408,7 +6417,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -6434,7 +6443,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -6460,7 +6469,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>9</v>
       </c>
@@ -6486,7 +6495,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>9</v>
       </c>
@@ -6512,7 +6521,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -6538,7 +6547,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -6564,7 +6573,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>9</v>
       </c>
@@ -6590,7 +6599,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -6616,7 +6625,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -6642,7 +6651,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -6668,7 +6677,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -6694,7 +6703,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>9</v>
       </c>
@@ -6720,7 +6729,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>9</v>
       </c>
@@ -6746,7 +6755,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>9</v>
       </c>
@@ -6772,7 +6781,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -6798,7 +6807,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -6824,7 +6833,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -6850,7 +6859,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>9</v>
       </c>
@@ -6876,7 +6885,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -6902,7 +6911,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>9</v>
       </c>
@@ -6928,7 +6937,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>9</v>
       </c>
@@ -6954,7 +6963,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>9</v>
       </c>
@@ -6980,7 +6989,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>9</v>
       </c>
@@ -7006,7 +7015,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -7032,7 +7041,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -7058,7 +7067,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>9</v>
       </c>
@@ -7084,7 +7093,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>130</v>
       </c>
@@ -7110,7 +7119,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -7136,7 +7145,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>9</v>
       </c>
@@ -7162,7 +7171,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>9</v>
       </c>
@@ -7188,7 +7197,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>9</v>
       </c>
@@ -7214,7 +7223,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>9</v>
       </c>
@@ -7240,7 +7249,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>130</v>
       </c>
@@ -7266,7 +7275,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>9</v>
       </c>
@@ -7292,7 +7301,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>130</v>
       </c>
@@ -7318,7 +7327,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -7344,7 +7353,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>9</v>
       </c>
@@ -7370,7 +7379,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>9</v>
       </c>
@@ -7396,7 +7405,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>9</v>
       </c>
@@ -7422,7 +7431,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>9</v>
       </c>
@@ -7448,7 +7457,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>9</v>
       </c>
@@ -7474,7 +7483,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>9</v>
       </c>
@@ -7500,7 +7509,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>9</v>
       </c>
@@ -7526,7 +7535,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>9</v>
       </c>
@@ -7552,7 +7561,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>9</v>
       </c>
@@ -7578,7 +7587,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>9</v>
       </c>
@@ -7604,7 +7613,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>9</v>
       </c>
@@ -7630,7 +7639,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -7656,7 +7665,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -7682,7 +7691,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>9</v>
       </c>
@@ -7708,7 +7717,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>9</v>
       </c>
@@ -7734,7 +7743,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -7760,7 +7769,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>9</v>
       </c>
@@ -7786,7 +7795,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>130</v>
       </c>
@@ -7812,7 +7821,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>9</v>
       </c>
@@ -7838,7 +7847,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -7864,7 +7873,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>130</v>
       </c>
@@ -7890,7 +7899,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>130</v>
       </c>
@@ -7916,7 +7925,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>130</v>
       </c>
@@ -7942,7 +7951,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -7968,7 +7977,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>130</v>
       </c>
@@ -7994,7 +8003,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>9</v>
       </c>
@@ -8020,7 +8029,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>9</v>
       </c>
@@ -8046,7 +8055,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>9</v>
       </c>
@@ -8072,7 +8081,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>9</v>
       </c>
@@ -8098,7 +8107,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>9</v>
       </c>
@@ -8124,7 +8133,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>9</v>
       </c>
@@ -8150,7 +8159,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>130</v>
       </c>
@@ -8176,7 +8185,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>9</v>
       </c>
@@ -8202,7 +8211,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>130</v>
       </c>
@@ -8228,7 +8237,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>9</v>
       </c>
@@ -8254,7 +8263,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>130</v>
       </c>
@@ -8280,7 +8289,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>9</v>
       </c>
@@ -8306,7 +8315,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>130</v>
       </c>
@@ -8332,7 +8341,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>130</v>
       </c>
@@ -8358,7 +8367,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>9</v>
       </c>
@@ -8384,7 +8393,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>130</v>
       </c>
@@ -8410,7 +8419,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>130</v>
       </c>
@@ -8436,7 +8445,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>9</v>
       </c>
@@ -8462,7 +8471,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>9</v>
       </c>
@@ -8491,7 +8500,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>9</v>
       </c>
@@ -8520,7 +8529,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>130</v>
       </c>
@@ -8549,7 +8558,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>9</v>
       </c>
@@ -8578,7 +8587,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>130</v>
       </c>
@@ -8607,7 +8616,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>130</v>
       </c>
@@ -8636,7 +8645,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>9</v>
       </c>
@@ -8665,7 +8674,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>9</v>
       </c>
@@ -8694,7 +8703,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>130</v>
       </c>
@@ -8723,7 +8732,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>9</v>
       </c>
@@ -8752,7 +8761,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>130</v>
       </c>
@@ -8781,7 +8790,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>9</v>
       </c>
@@ -8810,7 +8819,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>130</v>
       </c>
@@ -8839,7 +8848,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>9</v>
       </c>
@@ -8868,7 +8877,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>258</v>
       </c>
@@ -8897,7 +8906,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>9</v>
       </c>
@@ -8926,7 +8935,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>9</v>
       </c>
@@ -8955,7 +8964,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>9</v>
       </c>
@@ -8984,7 +8993,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>130</v>
       </c>
@@ -9013,7 +9022,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>130</v>
       </c>
@@ -9039,7 +9048,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>130</v>
       </c>
@@ -9065,7 +9074,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>130</v>
       </c>
@@ -9094,7 +9103,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>9</v>
       </c>
@@ -9120,7 +9129,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>9</v>
       </c>
@@ -9146,7 +9155,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>9</v>
       </c>
@@ -9175,7 +9184,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>9</v>
       </c>
@@ -9201,7 +9210,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>9</v>
       </c>
@@ -9227,7 +9236,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>9</v>
       </c>
@@ -9256,7 +9265,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>130</v>
       </c>
@@ -9282,7 +9291,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>130</v>
       </c>
@@ -9308,7 +9317,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>9</v>
       </c>
@@ -9334,7 +9343,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -9360,7 +9369,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>9</v>
       </c>
@@ -9386,7 +9395,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>130</v>
       </c>
@@ -9412,7 +9421,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>130</v>
       </c>
@@ -9438,7 +9447,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>9</v>
       </c>
@@ -9464,7 +9473,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>130</v>
       </c>
@@ -9490,7 +9499,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -9516,7 +9525,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>9</v>
       </c>
@@ -9542,7 +9551,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>9</v>
       </c>
@@ -9568,7 +9577,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>9</v>
       </c>
@@ -9594,7 +9603,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>130</v>
       </c>
@@ -9620,7 +9629,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>9</v>
       </c>
@@ -9646,7 +9655,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>9</v>
       </c>
@@ -9672,7 +9681,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>130</v>
       </c>
@@ -9698,7 +9707,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>9</v>
       </c>
@@ -9727,7 +9736,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>9</v>
       </c>
@@ -9753,7 +9762,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>9</v>
       </c>
@@ -9782,7 +9791,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>130</v>
       </c>
@@ -9808,7 +9817,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>130</v>
       </c>
@@ -9834,7 +9843,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>9</v>
       </c>
@@ -9860,7 +9869,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>9</v>
       </c>
@@ -9886,7 +9895,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>130</v>
       </c>
@@ -9915,7 +9924,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>130</v>
       </c>
@@ -9941,7 +9950,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>130</v>
       </c>
@@ -9967,7 +9976,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>9</v>
       </c>
@@ -9996,7 +10005,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>130</v>
       </c>
@@ -10025,7 +10034,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>130</v>
       </c>
@@ -10054,7 +10063,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>130</v>
       </c>
@@ -10083,7 +10092,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>9</v>
       </c>
@@ -10112,7 +10121,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>9</v>
       </c>
@@ -10141,7 +10150,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>130</v>
       </c>
@@ -10170,7 +10179,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>9</v>
       </c>
@@ -10199,7 +10208,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>9</v>
       </c>
@@ -10228,7 +10237,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>9</v>
       </c>
@@ -10257,7 +10266,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>130</v>
       </c>
@@ -10286,7 +10295,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>130</v>
       </c>
@@ -10315,7 +10324,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>130</v>
       </c>
@@ -10344,7 +10353,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>9</v>
       </c>
@@ -10373,7 +10382,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>130</v>
       </c>
@@ -10402,7 +10411,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>130</v>
       </c>
@@ -10431,7 +10440,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>9</v>
       </c>
@@ -10460,7 +10469,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>9</v>
       </c>
@@ -10489,7 +10498,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>130</v>
       </c>
@@ -10518,7 +10527,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>9</v>
       </c>
@@ -10547,7 +10556,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>130</v>
       </c>
@@ -10576,7 +10585,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>9</v>
       </c>
@@ -10602,7 +10611,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>9</v>
       </c>
@@ -10628,7 +10637,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>130</v>
       </c>
@@ -10654,7 +10663,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>130</v>
       </c>
@@ -10680,7 +10689,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>130</v>
       </c>
@@ -10706,7 +10715,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>130</v>
       </c>
@@ -10732,7 +10741,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>9</v>
       </c>
@@ -10758,7 +10767,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>130</v>
       </c>
@@ -10784,7 +10793,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>9</v>
       </c>
@@ -10810,7 +10819,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>9</v>
       </c>
@@ -10836,7 +10845,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>130</v>
       </c>
@@ -10862,7 +10871,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>130</v>
       </c>
@@ -10888,7 +10897,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>130</v>
       </c>
@@ -10914,7 +10923,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>130</v>
       </c>
@@ -10940,7 +10949,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>9</v>
       </c>
@@ -10966,7 +10975,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>9</v>
       </c>
@@ -10992,7 +11001,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>9</v>
       </c>
@@ -11018,7 +11027,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>9</v>
       </c>
@@ -11044,7 +11053,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>9</v>
       </c>
@@ -11070,7 +11079,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>130</v>
       </c>
@@ -11096,7 +11105,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>130</v>
       </c>
@@ -11125,7 +11134,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>9</v>
       </c>
@@ -11154,7 +11163,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>130</v>
       </c>
@@ -11183,7 +11192,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>130</v>
       </c>
@@ -11212,7 +11221,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>9</v>
       </c>
@@ -11241,7 +11250,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>130</v>
       </c>
@@ -11270,7 +11279,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>9</v>
       </c>
@@ -11299,7 +11308,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>9</v>
       </c>
@@ -11328,7 +11337,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>130</v>
       </c>
@@ -11357,7 +11366,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>130</v>
       </c>
@@ -11386,7 +11395,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>130</v>
       </c>
@@ -11415,7 +11424,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>9</v>
       </c>
@@ -11444,7 +11453,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>9</v>
       </c>
@@ -11473,7 +11482,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>130</v>
       </c>
@@ -11502,7 +11511,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>130</v>
       </c>
@@ -11531,7 +11540,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>9</v>
       </c>
@@ -11560,7 +11569,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>130</v>
       </c>
@@ -11589,7 +11598,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>130</v>
       </c>
@@ -11618,7 +11627,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>9</v>
       </c>
@@ -11647,7 +11656,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>9</v>
       </c>
@@ -11673,7 +11682,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>130</v>
       </c>
@@ -11702,7 +11711,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>130</v>
       </c>
@@ -11731,7 +11740,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>130</v>
       </c>
@@ -11760,7 +11769,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>9</v>
       </c>
@@ -11789,7 +11798,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>9</v>
       </c>
@@ -11818,7 +11827,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>9</v>
       </c>
@@ -11847,7 +11856,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>130</v>
       </c>
@@ -11876,7 +11885,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>9</v>
       </c>
@@ -11905,7 +11914,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>9</v>
       </c>
@@ -11934,7 +11943,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>130</v>
       </c>
@@ -11963,7 +11972,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>130</v>
       </c>
@@ -11992,7 +12001,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>130</v>
       </c>
@@ -12021,7 +12030,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>258</v>
       </c>
@@ -12050,7 +12059,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>9</v>
       </c>
@@ -12079,7 +12088,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>9</v>
       </c>
@@ -12110,31 +12119,31 @@
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="C352" t="s">
         <v>10</v>
       </c>
       <c r="D352" s="1">
-        <v>37419</v>
+        <v>42081</v>
       </c>
       <c r="E352" s="1">
-        <v>39226</v>
+        <v>43807</v>
       </c>
       <c r="F352" t="s">
-        <v>377</v>
+        <v>499</v>
       </c>
       <c r="G352" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="H352" t="s">
-        <v>378</v>
+        <v>24</v>
       </c>
       <c r="I352">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>130</v>
       </c>
@@ -12163,7 +12172,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>9</v>
       </c>
@@ -12192,7 +12201,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>130</v>
       </c>
@@ -12221,7 +12230,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>9</v>
       </c>
@@ -12250,7 +12259,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>130</v>
       </c>
@@ -12279,7 +12288,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>130</v>
       </c>
@@ -12308,7 +12317,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>9</v>
       </c>
@@ -12337,7 +12346,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>9</v>
       </c>
@@ -12366,7 +12375,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>130</v>
       </c>
@@ -12395,7 +12404,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>130</v>
       </c>
@@ -12424,7 +12433,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>130</v>
       </c>
@@ -12453,7 +12462,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>9</v>
       </c>
@@ -12482,7 +12491,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>130</v>
       </c>
@@ -12511,7 +12520,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>9</v>
       </c>
@@ -12540,7 +12549,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>9</v>
       </c>
@@ -12569,7 +12578,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>130</v>
       </c>
@@ -12598,7 +12607,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>9</v>
       </c>
@@ -12635,22 +12644,22 @@
         <v>10</v>
       </c>
       <c r="D370" s="1">
-        <v>37559</v>
+        <v>41356</v>
       </c>
       <c r="E370" s="1">
-        <v>39316</v>
+        <v>43376</v>
       </c>
       <c r="F370" t="s">
-        <v>396</v>
+        <v>500</v>
       </c>
       <c r="G370" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H370" t="s">
         <v>378</v>
       </c>
       <c r="I370">
-        <v>2002</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.2">
@@ -12661,13 +12670,13 @@
         <v>10</v>
       </c>
       <c r="D371" s="1">
-        <v>37559</v>
+        <v>43537</v>
       </c>
       <c r="E371" s="1">
-        <v>39316</v>
+        <v>44063</v>
       </c>
       <c r="F371" t="s">
-        <v>397</v>
+        <v>503</v>
       </c>
       <c r="G371" t="s">
         <v>12</v>
@@ -12676,7 +12685,7 @@
         <v>378</v>
       </c>
       <c r="I371">
-        <v>2002</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.2">
@@ -12687,54 +12696,51 @@
         <v>10</v>
       </c>
       <c r="D372" s="1">
-        <v>37559</v>
+        <v>42445</v>
       </c>
       <c r="E372" s="1">
-        <v>39137</v>
+        <v>43449</v>
       </c>
       <c r="F372" t="s">
-        <v>398</v>
+        <v>505</v>
       </c>
       <c r="G372" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H372" t="s">
-        <v>378</v>
+        <v>24</v>
       </c>
       <c r="I372">
-        <v>2002</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>9</v>
       </c>
-      <c r="B373" s="1">
-        <v>38139</v>
-      </c>
       <c r="C373" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="D373" s="1">
-        <v>37559</v>
+        <v>42445</v>
       </c>
       <c r="E373" s="1">
-        <v>37562</v>
+        <v>43900</v>
       </c>
       <c r="F373" t="s">
-        <v>399</v>
+        <v>506</v>
       </c>
       <c r="G373" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="H373" t="s">
         <v>378</v>
       </c>
       <c r="I373">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>9</v>
       </c>
@@ -12760,7 +12766,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>9</v>
       </c>
@@ -12786,7 +12792,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>9</v>
       </c>
@@ -12812,7 +12818,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>9</v>
       </c>
@@ -12838,7 +12844,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>9</v>
       </c>
@@ -12864,7 +12870,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>9</v>
       </c>
@@ -12890,7 +12896,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>9</v>
       </c>
@@ -12916,7 +12922,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>9</v>
       </c>
@@ -12942,7 +12948,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>9</v>
       </c>
@@ -12968,7 +12974,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>9</v>
       </c>
@@ -12994,7 +13000,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>9</v>
       </c>
@@ -13020,7 +13026,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>9</v>
       </c>
@@ -13046,7 +13052,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>9</v>
       </c>
@@ -13072,7 +13078,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>9</v>
       </c>
@@ -13098,7 +13104,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>9</v>
       </c>
@@ -13124,7 +13130,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>9</v>
       </c>
@@ -13150,7 +13156,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>9</v>
       </c>
@@ -13176,7 +13182,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>9</v>
       </c>
@@ -13202,7 +13208,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>9</v>
       </c>
@@ -13228,7 +13234,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>9</v>
       </c>
@@ -13254,7 +13260,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>9</v>
       </c>
@@ -13280,7 +13286,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>9</v>
       </c>
@@ -13306,7 +13312,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>9</v>
       </c>
@@ -13332,7 +13338,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>9</v>
       </c>
@@ -13358,7 +13364,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>9</v>
       </c>
@@ -13384,7 +13390,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>9</v>
       </c>
@@ -13410,7 +13416,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>9</v>
       </c>
@@ -13436,7 +13442,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>9</v>
       </c>
@@ -13462,7 +13468,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>9</v>
       </c>
@@ -13488,7 +13494,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>9</v>
       </c>
@@ -13514,7 +13520,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>9</v>
       </c>
@@ -13540,7 +13546,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>9</v>
       </c>
@@ -13566,7 +13572,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>9</v>
       </c>
@@ -13592,7 +13598,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>9</v>
       </c>
@@ -13618,7 +13624,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>9</v>
       </c>
@@ -13644,7 +13650,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>9</v>
       </c>
@@ -13670,7 +13676,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>9</v>
       </c>
@@ -13696,7 +13702,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>9</v>
       </c>
@@ -13722,7 +13728,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>9</v>
       </c>
@@ -13748,7 +13754,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>9</v>
       </c>
@@ -13774,7 +13780,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>9</v>
       </c>
@@ -13800,7 +13806,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>9</v>
       </c>
@@ -13826,7 +13832,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>9</v>
       </c>
@@ -13852,7 +13858,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>9</v>
       </c>
@@ -13878,7 +13884,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>9</v>
       </c>
@@ -13904,7 +13910,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>9</v>
       </c>
@@ -13930,7 +13936,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>9</v>
       </c>
@@ -13956,7 +13962,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>9</v>
       </c>
@@ -13982,7 +13988,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>9</v>
       </c>
@@ -14008,7 +14014,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>9</v>
       </c>
@@ -14034,7 +14040,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>9</v>
       </c>
@@ -14063,7 +14069,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>9</v>
       </c>
@@ -14089,7 +14095,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>9</v>
       </c>
@@ -14115,7 +14121,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>9</v>
       </c>
@@ -14141,7 +14147,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>9</v>
       </c>
@@ -14167,7 +14173,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>9</v>
       </c>
@@ -14193,7 +14199,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>9</v>
       </c>
@@ -14219,7 +14225,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>9</v>
       </c>
@@ -14245,7 +14251,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>9</v>
       </c>
@@ -14271,7 +14277,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>9</v>
       </c>
@@ -14297,7 +14303,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>9</v>
       </c>
@@ -14323,7 +14329,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>9</v>
       </c>
@@ -14349,7 +14355,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>9</v>
       </c>
@@ -14375,7 +14381,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>9</v>
       </c>
@@ -14401,7 +14407,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>9</v>
       </c>
@@ -14427,7 +14433,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>9</v>
       </c>
@@ -14453,7 +14459,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>9</v>
       </c>
@@ -14479,7 +14485,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>9</v>
       </c>
@@ -14505,7 +14511,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>9</v>
       </c>
@@ -14531,7 +14537,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>9</v>
       </c>
@@ -14557,7 +14563,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>9</v>
       </c>
@@ -14583,7 +14589,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>9</v>
       </c>
@@ -14609,7 +14615,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>9</v>
       </c>
@@ -14635,7 +14641,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>9</v>
       </c>
@@ -14661,7 +14667,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>9</v>
       </c>
@@ -14687,7 +14693,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>9</v>
       </c>
@@ -14713,7 +14719,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>9</v>
       </c>
@@ -14739,7 +14745,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>9</v>
       </c>
@@ -14765,7 +14771,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>9</v>
       </c>
@@ -14791,7 +14797,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>9</v>
       </c>
@@ -14817,7 +14823,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>9</v>
       </c>
@@ -14843,7 +14849,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>9</v>
       </c>
@@ -14869,7 +14875,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>9</v>
       </c>
@@ -14895,7 +14901,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>9</v>
       </c>
@@ -14929,22 +14935,22 @@
         <v>10</v>
       </c>
       <c r="D458" s="1">
-        <v>40620</v>
+        <v>42446</v>
       </c>
       <c r="E458" s="1">
-        <v>44286</v>
+        <v>42765</v>
       </c>
       <c r="F458" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="G458" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H458" t="s">
         <v>24</v>
       </c>
       <c r="I458">
-        <v>2011</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.2">
@@ -14955,22 +14961,22 @@
         <v>10</v>
       </c>
       <c r="D459" s="1">
-        <v>41725</v>
+        <v>42446</v>
       </c>
       <c r="E459" s="1">
-        <v>44286</v>
+        <v>42455</v>
       </c>
       <c r="F459" t="s">
-        <v>485</v>
+        <v>623</v>
       </c>
       <c r="G459" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H459" t="s">
         <v>24</v>
       </c>
       <c r="I459">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.2">
@@ -14981,22 +14987,22 @@
         <v>10</v>
       </c>
       <c r="D460" s="1">
-        <v>41725</v>
+        <v>41356</v>
       </c>
       <c r="E460" s="1">
-        <v>44286</v>
+        <v>42765</v>
       </c>
       <c r="F460" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="G460" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H460" t="s">
-        <v>24</v>
+        <v>378</v>
       </c>
       <c r="I460">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.2">
@@ -15007,13 +15013,13 @@
         <v>10</v>
       </c>
       <c r="D461" s="1">
-        <v>41292</v>
+        <v>43536</v>
       </c>
       <c r="E461" s="1">
-        <v>43140</v>
+        <v>43544</v>
       </c>
       <c r="F461" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="G461" t="s">
         <v>23</v>
@@ -15022,7 +15028,7 @@
         <v>24</v>
       </c>
       <c r="I461">
-        <v>2013</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.2">
@@ -15033,22 +15039,22 @@
         <v>10</v>
       </c>
       <c r="D462" s="1">
-        <v>41725</v>
+        <v>42817</v>
       </c>
       <c r="E462" s="1">
-        <v>44286</v>
+        <v>43696</v>
       </c>
       <c r="F462" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="G462" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H462" t="s">
-        <v>378</v>
+        <v>24</v>
       </c>
       <c r="I462">
-        <v>2014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.2">
@@ -15059,22 +15065,22 @@
         <v>10</v>
       </c>
       <c r="D463" s="1">
-        <v>41725</v>
+        <v>42817</v>
       </c>
       <c r="E463" s="1">
-        <v>42480</v>
+        <v>42971</v>
       </c>
       <c r="F463" t="s">
-        <v>489</v>
+        <v>515</v>
       </c>
       <c r="G463" t="s">
         <v>23</v>
       </c>
       <c r="H463" t="s">
-        <v>378</v>
+        <v>24</v>
       </c>
       <c r="I463">
-        <v>2014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.2">
@@ -15085,22 +15091,22 @@
         <v>10</v>
       </c>
       <c r="D464" s="1">
-        <v>41725</v>
+        <v>43552</v>
       </c>
       <c r="E464" s="1">
-        <v>44286</v>
+        <v>43837</v>
       </c>
       <c r="F464" t="s">
-        <v>490</v>
+        <v>565</v>
       </c>
       <c r="G464" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H464" t="s">
         <v>378</v>
       </c>
       <c r="I464">
-        <v>2014</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.2">
@@ -15111,13 +15117,13 @@
         <v>10</v>
       </c>
       <c r="D465" s="1">
-        <v>41292</v>
+        <v>41356</v>
       </c>
       <c r="E465" s="1">
-        <v>41993</v>
+        <v>42066</v>
       </c>
       <c r="F465" t="s">
-        <v>491</v>
+        <v>621</v>
       </c>
       <c r="G465" t="s">
         <v>23</v>
@@ -15137,22 +15143,22 @@
         <v>10</v>
       </c>
       <c r="D466" s="1">
-        <v>41726</v>
+        <v>41356</v>
       </c>
       <c r="E466" s="1">
-        <v>44286</v>
+        <v>41893</v>
       </c>
       <c r="F466" t="s">
-        <v>492</v>
+        <v>622</v>
       </c>
       <c r="G466" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H466" t="s">
-        <v>24</v>
+        <v>378</v>
       </c>
       <c r="I466">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.2">
@@ -15163,22 +15169,22 @@
         <v>10</v>
       </c>
       <c r="D467" s="1">
-        <v>41726</v>
+        <v>37592</v>
       </c>
       <c r="E467" s="1">
-        <v>41830</v>
+        <v>38460</v>
       </c>
       <c r="F467" t="s">
-        <v>493</v>
+        <v>30</v>
       </c>
       <c r="G467" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H467" t="s">
-        <v>378</v>
+        <v>24</v>
       </c>
       <c r="I467">
-        <v>2014</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.2">
@@ -15189,22 +15195,22 @@
         <v>10</v>
       </c>
       <c r="D468" s="1">
-        <v>42081</v>
+        <v>37703</v>
       </c>
       <c r="E468" s="1">
-        <v>42931</v>
+        <v>38460</v>
       </c>
       <c r="F468" t="s">
-        <v>494</v>
+        <v>35</v>
       </c>
       <c r="G468" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H468" t="s">
         <v>24</v>
       </c>
       <c r="I468">
-        <v>2015</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.2">
@@ -15215,22 +15221,22 @@
         <v>10</v>
       </c>
       <c r="D469" s="1">
-        <v>42081</v>
+        <v>39176</v>
       </c>
       <c r="E469" s="1">
-        <v>44173</v>
+        <v>39856</v>
       </c>
       <c r="F469" t="s">
-        <v>495</v>
+        <v>53</v>
       </c>
       <c r="G469" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H469" t="s">
         <v>24</v>
       </c>
       <c r="I469">
-        <v>2015</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.2">
@@ -15241,13 +15247,13 @@
         <v>10</v>
       </c>
       <c r="D470" s="1">
-        <v>42081</v>
+        <v>39801</v>
       </c>
       <c r="E470" s="1">
-        <v>44286</v>
+        <v>40257</v>
       </c>
       <c r="F470" t="s">
-        <v>496</v>
+        <v>64</v>
       </c>
       <c r="G470" t="s">
         <v>12</v>
@@ -15256,7 +15262,7 @@
         <v>24</v>
       </c>
       <c r="I470">
-        <v>2015</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.2">
@@ -15267,22 +15273,22 @@
         <v>10</v>
       </c>
       <c r="D471" s="1">
-        <v>40631</v>
+        <v>39801</v>
       </c>
       <c r="E471" s="1">
-        <v>42765</v>
+        <v>40640</v>
       </c>
       <c r="F471" t="s">
-        <v>497</v>
+        <v>65</v>
       </c>
       <c r="G471" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H471" t="s">
         <v>24</v>
       </c>
       <c r="I471">
-        <v>2011</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.2">
@@ -15293,13 +15299,13 @@
         <v>10</v>
       </c>
       <c r="D472" s="1">
-        <v>42081</v>
+        <v>39802</v>
       </c>
       <c r="E472" s="1">
-        <v>44286</v>
+        <v>40640</v>
       </c>
       <c r="F472" t="s">
-        <v>498</v>
+        <v>66</v>
       </c>
       <c r="G472" t="s">
         <v>12</v>
@@ -15308,7 +15314,7 @@
         <v>24</v>
       </c>
       <c r="I472">
-        <v>2015</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.2">
@@ -15319,22 +15325,22 @@
         <v>10</v>
       </c>
       <c r="D473" s="1">
-        <v>42081</v>
+        <v>41292</v>
       </c>
       <c r="E473" s="1">
-        <v>43807</v>
+        <v>41363</v>
       </c>
       <c r="F473" t="s">
-        <v>499</v>
+        <v>95</v>
       </c>
       <c r="G473" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H473" t="s">
         <v>24</v>
       </c>
       <c r="I473">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.2">
@@ -15345,22 +15351,22 @@
         <v>10</v>
       </c>
       <c r="D474" s="1">
-        <v>41356</v>
+        <v>37559</v>
       </c>
       <c r="E474" s="1">
-        <v>43376</v>
+        <v>39316</v>
       </c>
       <c r="F474" t="s">
-        <v>500</v>
+        <v>396</v>
       </c>
       <c r="G474" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H474" t="s">
         <v>378</v>
       </c>
       <c r="I474">
-        <v>2013</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.2">
@@ -15371,22 +15377,22 @@
         <v>10</v>
       </c>
       <c r="D475" s="1">
-        <v>42087</v>
+        <v>37559</v>
       </c>
       <c r="E475" s="1">
-        <v>44286</v>
+        <v>39316</v>
       </c>
       <c r="F475" t="s">
-        <v>501</v>
+        <v>397</v>
       </c>
       <c r="G475" t="s">
         <v>12</v>
       </c>
       <c r="H475" t="s">
-        <v>24</v>
+        <v>378</v>
       </c>
       <c r="I475">
-        <v>2015</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.2">
@@ -15397,22 +15403,22 @@
         <v>10</v>
       </c>
       <c r="D476" s="1">
-        <v>42817</v>
+        <v>37559</v>
       </c>
       <c r="E476" s="1">
-        <v>44286</v>
+        <v>39137</v>
       </c>
       <c r="F476" t="s">
-        <v>502</v>
+        <v>398</v>
       </c>
       <c r="G476" t="s">
         <v>12</v>
       </c>
       <c r="H476" t="s">
-        <v>24</v>
+        <v>378</v>
       </c>
       <c r="I476">
-        <v>2017</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.2">
@@ -15423,22 +15429,22 @@
         <v>10</v>
       </c>
       <c r="D477" s="1">
-        <v>43537</v>
+        <v>40620</v>
       </c>
       <c r="E477" s="1">
-        <v>44063</v>
+        <v>44286</v>
       </c>
       <c r="F477" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="G477" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H477" t="s">
-        <v>378</v>
+        <v>24</v>
       </c>
       <c r="I477">
-        <v>2019</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.2">
@@ -15449,13 +15455,13 @@
         <v>10</v>
       </c>
       <c r="D478" s="1">
-        <v>42445</v>
+        <v>41725</v>
       </c>
       <c r="E478" s="1">
         <v>44286</v>
       </c>
       <c r="F478" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="G478" t="s">
         <v>12</v>
@@ -15464,7 +15470,7 @@
         <v>24</v>
       </c>
       <c r="I478">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.2">
@@ -15475,22 +15481,22 @@
         <v>10</v>
       </c>
       <c r="D479" s="1">
-        <v>42445</v>
+        <v>41725</v>
       </c>
       <c r="E479" s="1">
-        <v>43449</v>
+        <v>44286</v>
       </c>
       <c r="F479" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="G479" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H479" t="s">
         <v>24</v>
       </c>
       <c r="I479">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.2">
@@ -15501,22 +15507,22 @@
         <v>10</v>
       </c>
       <c r="D480" s="1">
-        <v>42445</v>
+        <v>41725</v>
       </c>
       <c r="E480" s="1">
-        <v>43900</v>
+        <v>44286</v>
       </c>
       <c r="F480" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="G480" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H480" t="s">
         <v>378</v>
       </c>
       <c r="I480">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.2">
@@ -15527,13 +15533,13 @@
         <v>10</v>
       </c>
       <c r="D481" s="1">
-        <v>42445</v>
+        <v>41725</v>
       </c>
       <c r="E481" s="1">
         <v>44286</v>
       </c>
       <c r="F481" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="G481" t="s">
         <v>12</v>
@@ -15542,7 +15548,7 @@
         <v>378</v>
       </c>
       <c r="I481">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.2">
@@ -15553,22 +15559,22 @@
         <v>10</v>
       </c>
       <c r="D482" s="1">
-        <v>42446</v>
+        <v>41726</v>
       </c>
       <c r="E482" s="1">
-        <v>42765</v>
+        <v>44286</v>
       </c>
       <c r="F482" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="G482" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H482" t="s">
         <v>24</v>
       </c>
       <c r="I482">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.2">
@@ -15579,22 +15585,22 @@
         <v>10</v>
       </c>
       <c r="D483" s="1">
-        <v>41356</v>
+        <v>42081</v>
       </c>
       <c r="E483" s="1">
-        <v>42765</v>
+        <v>44286</v>
       </c>
       <c r="F483" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="G483" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H483" t="s">
-        <v>378</v>
+        <v>24</v>
       </c>
       <c r="I483">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.2">
@@ -15605,13 +15611,13 @@
         <v>10</v>
       </c>
       <c r="D484" s="1">
-        <v>43456</v>
+        <v>42081</v>
       </c>
       <c r="E484" s="1">
         <v>44286</v>
       </c>
       <c r="F484" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="G484" t="s">
         <v>12</v>
@@ -15620,7 +15626,7 @@
         <v>24</v>
       </c>
       <c r="I484">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.2">
@@ -15631,13 +15637,13 @@
         <v>10</v>
       </c>
       <c r="D485" s="1">
-        <v>43456</v>
+        <v>42087</v>
       </c>
       <c r="E485" s="1">
         <v>44286</v>
       </c>
       <c r="F485" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="G485" t="s">
         <v>12</v>
@@ -15646,7 +15652,7 @@
         <v>24</v>
       </c>
       <c r="I485">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.2">
@@ -15657,22 +15663,22 @@
         <v>10</v>
       </c>
       <c r="D486" s="1">
-        <v>43536</v>
+        <v>42817</v>
       </c>
       <c r="E486" s="1">
-        <v>43544</v>
+        <v>44286</v>
       </c>
       <c r="F486" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="G486" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H486" t="s">
         <v>24</v>
       </c>
       <c r="I486">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.2">
@@ -15683,22 +15689,22 @@
         <v>10</v>
       </c>
       <c r="D487" s="1">
-        <v>42817</v>
+        <v>42445</v>
       </c>
       <c r="E487" s="1">
-        <v>43696</v>
+        <v>44286</v>
       </c>
       <c r="F487" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="G487" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H487" t="s">
         <v>24</v>
       </c>
       <c r="I487">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.2">
@@ -15709,22 +15715,22 @@
         <v>10</v>
       </c>
       <c r="D488" s="1">
-        <v>42817</v>
+        <v>42445</v>
       </c>
       <c r="E488" s="1">
-        <v>43346</v>
+        <v>44286</v>
       </c>
       <c r="F488" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G488" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H488" t="s">
         <v>378</v>
       </c>
       <c r="I488">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.2">
@@ -15735,22 +15741,22 @@
         <v>10</v>
       </c>
       <c r="D489" s="1">
-        <v>42817</v>
+        <v>43456</v>
       </c>
       <c r="E489" s="1">
-        <v>42971</v>
+        <v>44286</v>
       </c>
       <c r="F489" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="G489" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H489" t="s">
         <v>24</v>
       </c>
       <c r="I489">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.2">
@@ -15761,13 +15767,13 @@
         <v>10</v>
       </c>
       <c r="D490" s="1">
-        <v>43537</v>
+        <v>43456</v>
       </c>
       <c r="E490" s="1">
         <v>44286</v>
       </c>
       <c r="F490" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G490" t="s">
         <v>12</v>
@@ -15776,7 +15782,7 @@
         <v>24</v>
       </c>
       <c r="I490">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.2">
@@ -15787,13 +15793,13 @@
         <v>10</v>
       </c>
       <c r="D491" s="1">
-        <v>43904</v>
+        <v>42817</v>
       </c>
       <c r="E491" s="1">
-        <v>44286</v>
+        <v>43346</v>
       </c>
       <c r="F491" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G491" t="s">
         <v>12</v>
@@ -15802,7 +15808,7 @@
         <v>378</v>
       </c>
       <c r="I491">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.2">
@@ -15813,13 +15819,13 @@
         <v>10</v>
       </c>
       <c r="D492" s="1">
-        <v>43907</v>
+        <v>43537</v>
       </c>
       <c r="E492" s="1">
         <v>44286</v>
       </c>
       <c r="F492" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G492" t="s">
         <v>12</v>
@@ -15828,7 +15834,7 @@
         <v>24</v>
       </c>
       <c r="I492">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.2">
@@ -15839,25 +15845,25 @@
         <v>10</v>
       </c>
       <c r="D493" s="1">
-        <v>43167</v>
+        <v>43904</v>
       </c>
       <c r="E493" s="1">
-        <v>44117</v>
+        <v>44286</v>
       </c>
       <c r="F493" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G493" t="s">
         <v>12</v>
       </c>
       <c r="H493" t="s">
-        <v>133</v>
+        <v>378</v>
       </c>
       <c r="I493">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>9</v>
       </c>
@@ -15868,10 +15874,10 @@
         <v>43167</v>
       </c>
       <c r="E494" s="1">
-        <v>44286</v>
+        <v>44117</v>
       </c>
       <c r="F494" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G494" t="s">
         <v>12</v>
@@ -15883,7 +15889,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>9</v>
       </c>
@@ -15891,13 +15897,13 @@
         <v>10</v>
       </c>
       <c r="D495" s="1">
-        <v>43168</v>
+        <v>43167</v>
       </c>
       <c r="E495" s="1">
         <v>44286</v>
       </c>
       <c r="F495" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G495" t="s">
         <v>12</v>
@@ -15909,7 +15915,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>9</v>
       </c>
@@ -15920,13 +15926,13 @@
         <v>43168</v>
       </c>
       <c r="E496" s="1">
-        <v>43264</v>
+        <v>44286</v>
       </c>
       <c r="F496" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G496" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H496" t="s">
         <v>133</v>
@@ -15935,7 +15941,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>9</v>
       </c>
@@ -15946,13 +15952,13 @@
         <v>43168</v>
       </c>
       <c r="E497" s="1">
-        <v>44286</v>
+        <v>43264</v>
       </c>
       <c r="F497" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G497" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H497" t="s">
         <v>133</v>
@@ -15961,7 +15967,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>9</v>
       </c>
@@ -15972,13 +15978,13 @@
         <v>43168</v>
       </c>
       <c r="E498" s="1">
-        <v>44004</v>
+        <v>44286</v>
       </c>
       <c r="F498" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G498" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H498" t="s">
         <v>133</v>
@@ -15987,7 +15993,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>9</v>
       </c>
@@ -15998,10 +16004,10 @@
         <v>43168</v>
       </c>
       <c r="E499" s="1">
-        <v>43552</v>
+        <v>44004</v>
       </c>
       <c r="F499" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G499" t="s">
         <v>23</v>
@@ -16013,7 +16019,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>9</v>
       </c>
@@ -16024,10 +16030,10 @@
         <v>43168</v>
       </c>
       <c r="E500" s="1">
-        <v>44206</v>
+        <v>43552</v>
       </c>
       <c r="F500" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G500" t="s">
         <v>23</v>
@@ -16039,7 +16045,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>9</v>
       </c>
@@ -16047,16 +16053,16 @@
         <v>10</v>
       </c>
       <c r="D501" s="1">
-        <v>43169</v>
+        <v>43168</v>
       </c>
       <c r="E501" s="1">
-        <v>43858</v>
+        <v>44206</v>
       </c>
       <c r="F501" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G501" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H501" t="s">
         <v>133</v>
@@ -16065,7 +16071,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>9</v>
       </c>
@@ -16076,10 +16082,10 @@
         <v>43169</v>
       </c>
       <c r="E502" s="1">
-        <v>44286</v>
+        <v>43858</v>
       </c>
       <c r="F502" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G502" t="s">
         <v>12</v>
@@ -16091,7 +16097,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>9</v>
       </c>
@@ -16105,7 +16111,7 @@
         <v>44286</v>
       </c>
       <c r="F503" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G503" t="s">
         <v>12</v>
@@ -16117,7 +16123,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>9</v>
       </c>
@@ -16131,7 +16137,7 @@
         <v>44286</v>
       </c>
       <c r="F504" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G504" t="s">
         <v>12</v>
@@ -16143,7 +16149,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>9</v>
       </c>
@@ -16154,13 +16160,13 @@
         <v>43169</v>
       </c>
       <c r="E505" s="1">
-        <v>43603</v>
+        <v>44286</v>
       </c>
       <c r="F505" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G505" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H505" t="s">
         <v>133</v>
@@ -16169,7 +16175,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>9</v>
       </c>
@@ -16180,10 +16186,10 @@
         <v>43169</v>
       </c>
       <c r="E506" s="1">
-        <v>43439</v>
+        <v>43603</v>
       </c>
       <c r="F506" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G506" t="s">
         <v>23</v>
@@ -16195,7 +16201,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>9</v>
       </c>
@@ -16206,10 +16212,10 @@
         <v>43169</v>
       </c>
       <c r="E507" s="1">
-        <v>43889</v>
+        <v>43439</v>
       </c>
       <c r="F507" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G507" t="s">
         <v>23</v>
@@ -16221,7 +16227,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>9</v>
       </c>
@@ -16232,13 +16238,13 @@
         <v>43169</v>
       </c>
       <c r="E508" s="1">
-        <v>44286</v>
+        <v>43889</v>
       </c>
       <c r="F508" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G508" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H508" t="s">
         <v>133</v>
@@ -16247,7 +16253,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>9</v>
       </c>
@@ -16255,13 +16261,13 @@
         <v>10</v>
       </c>
       <c r="D509" s="1">
-        <v>43170</v>
+        <v>43169</v>
       </c>
       <c r="E509" s="1">
         <v>44286</v>
       </c>
       <c r="F509" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G509" t="s">
         <v>12</v>
@@ -16273,7 +16279,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>9</v>
       </c>
@@ -16287,7 +16293,7 @@
         <v>44286</v>
       </c>
       <c r="F510" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G510" t="s">
         <v>12</v>
@@ -16299,7 +16305,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>9</v>
       </c>
@@ -16313,7 +16319,7 @@
         <v>44286</v>
       </c>
       <c r="F511" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G511" t="s">
         <v>12</v>
@@ -16325,7 +16331,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>9</v>
       </c>
@@ -16336,13 +16342,13 @@
         <v>43170</v>
       </c>
       <c r="E512" s="1">
-        <v>43179</v>
+        <v>44286</v>
       </c>
       <c r="F512" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G512" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H512" t="s">
         <v>133</v>
@@ -16351,7 +16357,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>9</v>
       </c>
@@ -16362,13 +16368,13 @@
         <v>43170</v>
       </c>
       <c r="E513" s="1">
-        <v>44286</v>
+        <v>43179</v>
       </c>
       <c r="F513" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G513" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H513" t="s">
         <v>133</v>
@@ -16377,7 +16383,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>9</v>
       </c>
@@ -16391,7 +16397,7 @@
         <v>44286</v>
       </c>
       <c r="F514" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G514" t="s">
         <v>12</v>
@@ -16403,7 +16409,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>9</v>
       </c>
@@ -16414,13 +16420,13 @@
         <v>43170</v>
       </c>
       <c r="E515" s="1">
-        <v>43501</v>
+        <v>44286</v>
       </c>
       <c r="F515" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G515" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H515" t="s">
         <v>133</v>
@@ -16429,7 +16435,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>9</v>
       </c>
@@ -16437,16 +16443,16 @@
         <v>10</v>
       </c>
       <c r="D516" s="1">
-        <v>43438</v>
+        <v>43170</v>
       </c>
       <c r="E516" s="1">
-        <v>44286</v>
+        <v>43501</v>
       </c>
       <c r="F516" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G516" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H516" t="s">
         <v>133</v>
@@ -16455,7 +16461,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>9</v>
       </c>
@@ -16463,13 +16469,13 @@
         <v>10</v>
       </c>
       <c r="D517" s="1">
-        <v>43439</v>
+        <v>43438</v>
       </c>
       <c r="E517" s="1">
         <v>44286</v>
       </c>
       <c r="F517" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G517" t="s">
         <v>12</v>
@@ -16481,7 +16487,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>9</v>
       </c>
@@ -16495,7 +16501,7 @@
         <v>44286</v>
       </c>
       <c r="F518" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G518" t="s">
         <v>12</v>
@@ -16507,7 +16513,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>9</v>
       </c>
@@ -16518,13 +16524,13 @@
         <v>43439</v>
       </c>
       <c r="E519" s="1">
-        <v>43853</v>
+        <v>44286</v>
       </c>
       <c r="F519" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G519" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H519" t="s">
         <v>133</v>
@@ -16533,7 +16539,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>9</v>
       </c>
@@ -16541,16 +16547,16 @@
         <v>10</v>
       </c>
       <c r="D520" s="1">
-        <v>43440</v>
+        <v>43439</v>
       </c>
       <c r="E520" s="1">
-        <v>44286</v>
+        <v>43853</v>
       </c>
       <c r="F520" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G520" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H520" t="s">
         <v>133</v>
@@ -16559,7 +16565,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>9</v>
       </c>
@@ -16570,10 +16576,10 @@
         <v>43440</v>
       </c>
       <c r="E521" s="1">
-        <v>43689</v>
+        <v>44286</v>
       </c>
       <c r="F521" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G521" t="s">
         <v>12</v>
@@ -16585,7 +16591,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>9</v>
       </c>
@@ -16596,10 +16602,10 @@
         <v>43440</v>
       </c>
       <c r="E522" s="1">
-        <v>44286</v>
+        <v>43689</v>
       </c>
       <c r="F522" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G522" t="s">
         <v>12</v>
@@ -16611,7 +16617,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>9</v>
       </c>
@@ -16622,10 +16628,10 @@
         <v>43440</v>
       </c>
       <c r="E523" s="1">
-        <v>44071</v>
+        <v>44286</v>
       </c>
       <c r="F523" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G523" t="s">
         <v>12</v>
@@ -16637,7 +16643,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>9</v>
       </c>
@@ -16648,10 +16654,10 @@
         <v>43440</v>
       </c>
       <c r="E524" s="1">
-        <v>44286</v>
+        <v>44071</v>
       </c>
       <c r="F524" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G524" t="s">
         <v>12</v>
@@ -16663,7 +16669,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>9</v>
       </c>
@@ -16671,13 +16677,13 @@
         <v>10</v>
       </c>
       <c r="D525" s="1">
-        <v>43441</v>
+        <v>43440</v>
       </c>
       <c r="E525" s="1">
         <v>44286</v>
       </c>
       <c r="F525" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G525" t="s">
         <v>12</v>
@@ -16689,7 +16695,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>9</v>
       </c>
@@ -16703,7 +16709,7 @@
         <v>44286</v>
       </c>
       <c r="F526" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G526" t="s">
         <v>12</v>
@@ -16715,7 +16721,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>9</v>
       </c>
@@ -16726,13 +16732,13 @@
         <v>43441</v>
       </c>
       <c r="E527" s="1">
-        <v>43557</v>
+        <v>44286</v>
       </c>
       <c r="F527" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G527" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H527" t="s">
         <v>133</v>
@@ -16741,7 +16747,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>9</v>
       </c>
@@ -16749,16 +16755,16 @@
         <v>10</v>
       </c>
       <c r="D528" s="1">
-        <v>43442</v>
+        <v>43441</v>
       </c>
       <c r="E528" s="1">
-        <v>44286</v>
+        <v>43557</v>
       </c>
       <c r="F528" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G528" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H528" t="s">
         <v>133</v>
@@ -16767,7 +16773,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>9</v>
       </c>
@@ -16781,7 +16787,7 @@
         <v>44286</v>
       </c>
       <c r="F529" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G529" t="s">
         <v>12</v>
@@ -16793,7 +16799,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>9</v>
       </c>
@@ -16807,7 +16813,7 @@
         <v>44286</v>
       </c>
       <c r="F530" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G530" t="s">
         <v>12</v>
@@ -16819,7 +16825,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>9</v>
       </c>
@@ -16833,7 +16839,7 @@
         <v>44286</v>
       </c>
       <c r="F531" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G531" t="s">
         <v>12</v>
@@ -16845,7 +16851,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>9</v>
       </c>
@@ -16859,7 +16865,7 @@
         <v>44286</v>
       </c>
       <c r="F532" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G532" t="s">
         <v>12</v>
@@ -16871,7 +16877,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>9</v>
       </c>
@@ -16885,7 +16891,7 @@
         <v>44286</v>
       </c>
       <c r="F533" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G533" t="s">
         <v>12</v>
@@ -16897,7 +16903,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>9</v>
       </c>
@@ -16911,7 +16917,7 @@
         <v>44286</v>
       </c>
       <c r="F534" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G534" t="s">
         <v>12</v>
@@ -16923,7 +16929,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>9</v>
       </c>
@@ -16931,22 +16937,22 @@
         <v>10</v>
       </c>
       <c r="D535" s="1">
-        <v>43479</v>
+        <v>43442</v>
       </c>
       <c r="E535" s="1">
         <v>44286</v>
       </c>
       <c r="F535" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G535" t="s">
         <v>12</v>
       </c>
       <c r="H535" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="I535">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="536" spans="1:9" x14ac:dyDescent="0.2">
@@ -16957,13 +16963,13 @@
         <v>10</v>
       </c>
       <c r="D536" s="1">
-        <v>43482</v>
+        <v>43907</v>
       </c>
       <c r="E536" s="1">
         <v>44286</v>
       </c>
       <c r="F536" t="s">
-        <v>562</v>
+        <v>518</v>
       </c>
       <c r="G536" t="s">
         <v>12</v>
@@ -16972,7 +16978,7 @@
         <v>24</v>
       </c>
       <c r="I536">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.2">
@@ -16983,13 +16989,13 @@
         <v>10</v>
       </c>
       <c r="D537" s="1">
-        <v>43536</v>
+        <v>43479</v>
       </c>
       <c r="E537" s="1">
         <v>44286</v>
       </c>
       <c r="F537" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G537" t="s">
         <v>12</v>
@@ -17009,13 +17015,13 @@
         <v>10</v>
       </c>
       <c r="D538" s="1">
-        <v>43536</v>
+        <v>43482</v>
       </c>
       <c r="E538" s="1">
         <v>44286</v>
       </c>
       <c r="F538" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G538" t="s">
         <v>12</v>
@@ -17035,19 +17041,19 @@
         <v>10</v>
       </c>
       <c r="D539" s="1">
-        <v>43552</v>
+        <v>43536</v>
       </c>
       <c r="E539" s="1">
-        <v>43837</v>
+        <v>44286</v>
       </c>
       <c r="F539" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G539" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H539" t="s">
-        <v>378</v>
+        <v>24</v>
       </c>
       <c r="I539">
         <v>2019</v>
@@ -17061,19 +17067,19 @@
         <v>10</v>
       </c>
       <c r="D540" s="1">
-        <v>43552</v>
+        <v>43536</v>
       </c>
       <c r="E540" s="1">
         <v>44286</v>
       </c>
       <c r="F540" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G540" t="s">
         <v>12</v>
       </c>
       <c r="H540" t="s">
-        <v>378</v>
+        <v>24</v>
       </c>
       <c r="I540">
         <v>2019</v>
@@ -17093,7 +17099,7 @@
         <v>44286</v>
       </c>
       <c r="F541" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G541" t="s">
         <v>12</v>
@@ -17113,22 +17119,22 @@
         <v>10</v>
       </c>
       <c r="D542" s="1">
-        <v>43901</v>
+        <v>43552</v>
       </c>
       <c r="E542" s="1">
         <v>44286</v>
       </c>
       <c r="F542" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G542" t="s">
         <v>12</v>
       </c>
       <c r="H542" t="s">
-        <v>24</v>
+        <v>378</v>
       </c>
       <c r="I542">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.2">
@@ -17139,25 +17145,25 @@
         <v>10</v>
       </c>
       <c r="D543" s="1">
-        <v>43906</v>
+        <v>43901</v>
       </c>
       <c r="E543" s="1">
         <v>44286</v>
       </c>
       <c r="F543" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G543" t="s">
         <v>12</v>
       </c>
       <c r="H543" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="I543">
         <v>2020</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>9</v>
       </c>
@@ -17171,7 +17177,7 @@
         <v>44286</v>
       </c>
       <c r="F544" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G544" t="s">
         <v>12</v>
@@ -17183,7 +17189,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>9</v>
       </c>
@@ -17197,7 +17203,7 @@
         <v>44286</v>
       </c>
       <c r="F545" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G545" t="s">
         <v>12</v>
@@ -17209,7 +17215,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>9</v>
       </c>
@@ -17223,7 +17229,7 @@
         <v>44286</v>
       </c>
       <c r="F546" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G546" t="s">
         <v>12</v>
@@ -17235,7 +17241,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>9</v>
       </c>
@@ -17249,7 +17255,7 @@
         <v>44286</v>
       </c>
       <c r="F547" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G547" t="s">
         <v>12</v>
@@ -17261,7 +17267,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>9</v>
       </c>
@@ -17275,7 +17281,7 @@
         <v>44286</v>
       </c>
       <c r="F548" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G548" t="s">
         <v>12</v>
@@ -17287,7 +17293,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>9</v>
       </c>
@@ -17295,39 +17301,39 @@
         <v>10</v>
       </c>
       <c r="D549" s="1">
+        <v>43906</v>
+      </c>
+      <c r="E549" s="1">
+        <v>44286</v>
+      </c>
+      <c r="F549" t="s">
+        <v>574</v>
+      </c>
+      <c r="G549" t="s">
+        <v>12</v>
+      </c>
+      <c r="H549" t="s">
+        <v>133</v>
+      </c>
+      <c r="I549">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>9</v>
+      </c>
+      <c r="C550" t="s">
+        <v>10</v>
+      </c>
+      <c r="D550" s="1">
         <v>35399</v>
       </c>
-      <c r="E549" s="1">
+      <c r="E550" s="1">
         <v>35471</v>
       </c>
-      <c r="F549" t="s">
+      <c r="F550" t="s">
         <v>575</v>
-      </c>
-      <c r="G549" t="s">
-        <v>12</v>
-      </c>
-      <c r="H549" t="s">
-        <v>156</v>
-      </c>
-      <c r="I549">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A550" t="s">
-        <v>9</v>
-      </c>
-      <c r="C550" t="s">
-        <v>10</v>
-      </c>
-      <c r="D550" s="1">
-        <v>35484</v>
-      </c>
-      <c r="E550" s="1">
-        <v>35515</v>
-      </c>
-      <c r="F550" t="s">
-        <v>576</v>
       </c>
       <c r="G550" t="s">
         <v>12</v>
@@ -17336,10 +17342,10 @@
         <v>156</v>
       </c>
       <c r="I550">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>9</v>
       </c>
@@ -17347,13 +17353,13 @@
         <v>10</v>
       </c>
       <c r="D551" s="1">
-        <v>35399</v>
+        <v>35484</v>
       </c>
       <c r="E551" s="1">
-        <v>35421</v>
+        <v>35515</v>
       </c>
       <c r="F551" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G551" t="s">
         <v>12</v>
@@ -17362,10 +17368,10 @@
         <v>156</v>
       </c>
       <c r="I551">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>9</v>
       </c>
@@ -17373,13 +17379,13 @@
         <v>10</v>
       </c>
       <c r="D552" s="1">
-        <v>35125</v>
+        <v>35399</v>
       </c>
       <c r="E552" s="1">
-        <v>35423</v>
+        <v>35421</v>
       </c>
       <c r="F552" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G552" t="s">
         <v>12</v>
@@ -17391,7 +17397,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>9</v>
       </c>
@@ -17399,13 +17405,13 @@
         <v>10</v>
       </c>
       <c r="D553" s="1">
-        <v>35482</v>
+        <v>35125</v>
       </c>
       <c r="E553" s="1">
-        <v>35953</v>
+        <v>35423</v>
       </c>
       <c r="F553" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G553" t="s">
         <v>12</v>
@@ -17414,10 +17420,10 @@
         <v>156</v>
       </c>
       <c r="I553">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>9</v>
       </c>
@@ -17425,13 +17431,13 @@
         <v>10</v>
       </c>
       <c r="D554" s="1">
-        <v>35140</v>
+        <v>35482</v>
       </c>
       <c r="E554" s="1">
-        <v>35309</v>
+        <v>35953</v>
       </c>
       <c r="F554" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G554" t="s">
         <v>12</v>
@@ -17440,10 +17446,10 @@
         <v>156</v>
       </c>
       <c r="I554">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>9</v>
       </c>
@@ -17451,25 +17457,25 @@
         <v>10</v>
       </c>
       <c r="D555" s="1">
-        <v>35774</v>
+        <v>35140</v>
       </c>
       <c r="E555" s="1">
-        <v>36078</v>
+        <v>35309</v>
       </c>
       <c r="F555" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G555" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="H555" t="s">
         <v>156</v>
       </c>
       <c r="I555">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>9</v>
       </c>
@@ -17477,25 +17483,25 @@
         <v>10</v>
       </c>
       <c r="D556" s="1">
-        <v>35137</v>
+        <v>35774</v>
       </c>
       <c r="E556" s="1">
-        <v>35291</v>
+        <v>36078</v>
       </c>
       <c r="F556" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G556" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="H556" t="s">
         <v>156</v>
       </c>
       <c r="I556">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>9</v>
       </c>
@@ -17506,13 +17512,13 @@
         <v>35137</v>
       </c>
       <c r="E557" s="1">
-        <v>35230</v>
+        <v>35291</v>
       </c>
       <c r="F557" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G557" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="H557" t="s">
         <v>156</v>
@@ -17521,7 +17527,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>9</v>
       </c>
@@ -17529,25 +17535,25 @@
         <v>10</v>
       </c>
       <c r="D558" s="1">
-        <v>35545</v>
+        <v>35137</v>
       </c>
       <c r="E558" s="1">
-        <v>35738</v>
+        <v>35230</v>
       </c>
       <c r="F558" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G558" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="H558" t="s">
         <v>156</v>
       </c>
       <c r="I558">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>9</v>
       </c>
@@ -17555,13 +17561,13 @@
         <v>10</v>
       </c>
       <c r="D559" s="1">
-        <v>35886</v>
+        <v>35545</v>
       </c>
       <c r="E559" s="1">
-        <v>36096</v>
+        <v>35738</v>
       </c>
       <c r="F559" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G559" t="s">
         <v>12</v>
@@ -17570,10 +17576,10 @@
         <v>156</v>
       </c>
       <c r="I559">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>9</v>
       </c>
@@ -17581,25 +17587,25 @@
         <v>10</v>
       </c>
       <c r="D560" s="1">
-        <v>35126</v>
+        <v>35886</v>
       </c>
       <c r="E560" s="1">
-        <v>35209</v>
+        <v>36096</v>
       </c>
       <c r="F560" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G560" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="H560" t="s">
         <v>156</v>
       </c>
       <c r="I560">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>9</v>
       </c>
@@ -17607,16 +17613,16 @@
         <v>10</v>
       </c>
       <c r="D561" s="1">
-        <v>35368</v>
+        <v>35126</v>
       </c>
       <c r="E561" s="1">
-        <v>35370</v>
+        <v>35209</v>
       </c>
       <c r="F561" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G561" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="H561" t="s">
         <v>156</v>
@@ -17625,7 +17631,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>9</v>
       </c>
@@ -17633,13 +17639,13 @@
         <v>10</v>
       </c>
       <c r="D562" s="1">
-        <v>35545</v>
+        <v>35368</v>
       </c>
       <c r="E562" s="1">
-        <v>35676</v>
+        <v>35370</v>
       </c>
       <c r="F562" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G562" t="s">
         <v>12</v>
@@ -17648,10 +17654,10 @@
         <v>156</v>
       </c>
       <c r="I562">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>9</v>
       </c>
@@ -17659,13 +17665,13 @@
         <v>10</v>
       </c>
       <c r="D563" s="1">
-        <v>35886</v>
+        <v>35545</v>
       </c>
       <c r="E563" s="1">
-        <v>36041</v>
+        <v>35676</v>
       </c>
       <c r="F563" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G563" t="s">
         <v>12</v>
@@ -17674,62 +17680,62 @@
         <v>156</v>
       </c>
       <c r="I563">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="C564" t="s">
         <v>10</v>
       </c>
       <c r="D564" s="1">
-        <v>33682</v>
+        <v>35886</v>
       </c>
       <c r="E564" s="1">
-        <v>33706</v>
+        <v>36041</v>
       </c>
       <c r="F564" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G564" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="H564" t="s">
         <v>156</v>
       </c>
       <c r="I564">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="C565" t="s">
         <v>10</v>
       </c>
       <c r="D565" s="1">
-        <v>34011</v>
+        <v>33682</v>
       </c>
       <c r="E565" s="1">
-        <v>35197</v>
+        <v>33706</v>
       </c>
       <c r="F565" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G565" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="H565" t="s">
         <v>156</v>
       </c>
       <c r="I565">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>9</v>
       </c>
@@ -17737,13 +17743,13 @@
         <v>10</v>
       </c>
       <c r="D566" s="1">
-        <v>33336</v>
+        <v>34011</v>
       </c>
       <c r="E566" s="1">
-        <v>33506</v>
+        <v>35197</v>
       </c>
       <c r="F566" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G566" t="s">
         <v>12</v>
@@ -17752,10 +17758,10 @@
         <v>156</v>
       </c>
       <c r="I566">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>9</v>
       </c>
@@ -17766,13 +17772,13 @@
         <v>33336</v>
       </c>
       <c r="E567" s="1">
-        <v>35027</v>
+        <v>33506</v>
       </c>
       <c r="F567" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G567" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="H567" t="s">
         <v>156</v>
@@ -17781,7 +17787,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>9</v>
       </c>
@@ -17789,39 +17795,39 @@
         <v>10</v>
       </c>
       <c r="D568" s="1">
-        <v>33387</v>
+        <v>33336</v>
       </c>
       <c r="E568" s="1">
-        <v>33769</v>
+        <v>35027</v>
       </c>
       <c r="F568" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G568" t="s">
         <v>170</v>
       </c>
       <c r="H568" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="I568">
         <v>1991</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="C569" t="s">
         <v>10</v>
       </c>
       <c r="D569" s="1">
-        <v>33336</v>
+        <v>33387</v>
       </c>
       <c r="E569" s="1">
-        <v>33539</v>
+        <v>33769</v>
       </c>
       <c r="F569" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G569" t="s">
         <v>170</v>
@@ -17833,9 +17839,9 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="C570" t="s">
         <v>10</v>
@@ -17844,22 +17850,22 @@
         <v>33336</v>
       </c>
       <c r="E570" s="1">
-        <v>34185</v>
+        <v>33539</v>
       </c>
       <c r="F570" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G570" t="s">
         <v>170</v>
       </c>
       <c r="H570" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="I570">
         <v>1991</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>9</v>
       </c>
@@ -17870,13 +17876,13 @@
         <v>33336</v>
       </c>
       <c r="E571" s="1">
-        <v>34799</v>
+        <v>34185</v>
       </c>
       <c r="F571" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G571" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="H571" t="s">
         <v>156</v>
@@ -17885,7 +17891,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>9</v>
       </c>
@@ -17893,25 +17899,25 @@
         <v>10</v>
       </c>
       <c r="D572" s="1">
-        <v>33387</v>
+        <v>33336</v>
       </c>
       <c r="E572" s="1">
-        <v>33598</v>
+        <v>34799</v>
       </c>
       <c r="F572" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G572" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="H572" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="I572">
         <v>1991</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>9</v>
       </c>
@@ -17919,16 +17925,16 @@
         <v>10</v>
       </c>
       <c r="D573" s="1">
-        <v>33336</v>
+        <v>33387</v>
       </c>
       <c r="E573" s="1">
-        <v>34421</v>
+        <v>33598</v>
       </c>
       <c r="F573" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G573" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="H573" t="s">
         <v>133</v>
@@ -17937,7 +17943,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>9</v>
       </c>
@@ -17948,13 +17954,13 @@
         <v>33336</v>
       </c>
       <c r="E574" s="1">
-        <v>33397</v>
+        <v>34421</v>
       </c>
       <c r="F574" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G574" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="H574" t="s">
         <v>133</v>
@@ -17963,7 +17969,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>9</v>
       </c>
@@ -17974,22 +17980,22 @@
         <v>33336</v>
       </c>
       <c r="E575" s="1">
-        <v>34649</v>
+        <v>33397</v>
       </c>
       <c r="F575" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G575" t="s">
         <v>170</v>
       </c>
       <c r="H575" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="I575">
         <v>1991</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>9</v>
       </c>
@@ -18000,13 +18006,13 @@
         <v>33336</v>
       </c>
       <c r="E576" s="1">
-        <v>35032</v>
+        <v>34649</v>
       </c>
       <c r="F576" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G576" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="H576" t="s">
         <v>156</v>
@@ -18015,7 +18021,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>9</v>
       </c>
@@ -18026,22 +18032,22 @@
         <v>33336</v>
       </c>
       <c r="E577" s="1">
-        <v>34240</v>
+        <v>35032</v>
       </c>
       <c r="F577" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G577" t="s">
         <v>12</v>
       </c>
       <c r="H577" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="I577">
         <v>1991</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>9</v>
       </c>
@@ -18049,25 +18055,25 @@
         <v>10</v>
       </c>
       <c r="D578" s="1">
-        <v>33346</v>
+        <v>33336</v>
       </c>
       <c r="E578" s="1">
-        <v>35633</v>
+        <v>34240</v>
       </c>
       <c r="F578" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G578" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="H578" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="I578">
         <v>1991</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>9</v>
       </c>
@@ -18075,155 +18081,155 @@
         <v>10</v>
       </c>
       <c r="D579" s="1">
-        <v>33336</v>
+        <v>33346</v>
       </c>
       <c r="E579" s="1">
-        <v>34105</v>
+        <v>35633</v>
       </c>
       <c r="F579" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G579" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="H579" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="I579">
         <v>1991</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
+        <v>9</v>
+      </c>
+      <c r="C580" t="s">
+        <v>10</v>
+      </c>
+      <c r="D580" s="1">
+        <v>33336</v>
+      </c>
+      <c r="E580" s="1">
+        <v>34105</v>
+      </c>
+      <c r="F580" t="s">
+        <v>605</v>
+      </c>
+      <c r="G580" t="s">
+        <v>132</v>
+      </c>
+      <c r="H580" t="s">
+        <v>133</v>
+      </c>
+      <c r="I580">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
         <v>130</v>
       </c>
-      <c r="C580" t="s">
-        <v>10</v>
-      </c>
-      <c r="D580" s="1">
+      <c r="C581" t="s">
+        <v>10</v>
+      </c>
+      <c r="D581" s="1">
         <v>33680</v>
       </c>
-      <c r="E580" s="1">
+      <c r="E581" s="1">
         <v>34240</v>
       </c>
-      <c r="F580" t="s">
+      <c r="F581" t="s">
         <v>606</v>
       </c>
-      <c r="G580" t="s">
-        <v>12</v>
-      </c>
-      <c r="H580" t="s">
-        <v>133</v>
-      </c>
-      <c r="I580">
+      <c r="G581" t="s">
+        <v>12</v>
+      </c>
+      <c r="H581" t="s">
+        <v>133</v>
+      </c>
+      <c r="I581">
         <v>1992</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A581" t="s">
-        <v>9</v>
-      </c>
-      <c r="C581" t="s">
-        <v>10</v>
-      </c>
-      <c r="D581" s="1">
+    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>9</v>
+      </c>
+      <c r="C582" t="s">
+        <v>10</v>
+      </c>
+      <c r="D582" s="1">
         <v>33346</v>
       </c>
-      <c r="E581" s="1">
+      <c r="E582" s="1">
         <v>35629</v>
       </c>
-      <c r="F581" t="s">
+      <c r="F582" t="s">
         <v>607</v>
       </c>
-      <c r="G581" t="s">
+      <c r="G582" t="s">
         <v>170</v>
       </c>
-      <c r="H581" t="s">
+      <c r="H582" t="s">
         <v>156</v>
       </c>
-      <c r="I581">
+      <c r="I582">
         <v>1991</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A582" t="s">
-        <v>9</v>
-      </c>
-      <c r="C582" t="s">
-        <v>10</v>
-      </c>
-      <c r="D582" s="1">
+    <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>9</v>
+      </c>
+      <c r="C583" t="s">
+        <v>10</v>
+      </c>
+      <c r="D583" s="1">
         <v>33680</v>
       </c>
-      <c r="E582" s="1">
+      <c r="E583" s="1">
         <v>36029</v>
       </c>
-      <c r="F582" t="s">
+      <c r="F583" t="s">
         <v>608</v>
       </c>
-      <c r="G582" t="s">
+      <c r="G583" t="s">
         <v>132</v>
       </c>
-      <c r="H582" t="s">
-        <v>133</v>
-      </c>
-      <c r="I582">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A583" t="s">
-        <v>9</v>
-      </c>
-      <c r="C583" t="s">
-        <v>10</v>
-      </c>
-      <c r="D583" s="1">
-        <v>33730</v>
-      </c>
-      <c r="E583" s="1">
-        <v>35153</v>
-      </c>
-      <c r="F583" t="s">
-        <v>609</v>
-      </c>
-      <c r="G583" t="s">
-        <v>170</v>
-      </c>
       <c r="H583" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="I583">
         <v>1992</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="C584" t="s">
         <v>10</v>
       </c>
       <c r="D584" s="1">
-        <v>33680</v>
+        <v>33730</v>
       </c>
       <c r="E584" s="1">
-        <v>34421</v>
+        <v>35153</v>
       </c>
       <c r="F584" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G584" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="H584" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="I584">
         <v>1992</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>130</v>
       </c>
@@ -18231,25 +18237,25 @@
         <v>10</v>
       </c>
       <c r="D585" s="1">
-        <v>33336</v>
+        <v>33680</v>
       </c>
       <c r="E585" s="1">
-        <v>35165</v>
+        <v>34421</v>
       </c>
       <c r="F585" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G585" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="H585" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="I585">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>130</v>
       </c>
@@ -18257,25 +18263,25 @@
         <v>10</v>
       </c>
       <c r="D586" s="1">
-        <v>34433</v>
+        <v>33336</v>
       </c>
       <c r="E586" s="1">
-        <v>34699</v>
+        <v>35165</v>
       </c>
       <c r="F586" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G586" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="H586" t="s">
         <v>156</v>
       </c>
       <c r="I586">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>130</v>
       </c>
@@ -18286,13 +18292,13 @@
         <v>34433</v>
       </c>
       <c r="E587" s="1">
-        <v>34677</v>
+        <v>34699</v>
       </c>
       <c r="F587" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G587" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="H587" t="s">
         <v>156</v>
@@ -18301,7 +18307,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>130</v>
       </c>
@@ -18312,13 +18318,13 @@
         <v>34433</v>
       </c>
       <c r="E588" s="1">
-        <v>35141</v>
+        <v>34677</v>
       </c>
       <c r="F588" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G588" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="H588" t="s">
         <v>156</v>
@@ -18327,33 +18333,33 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="C589" t="s">
         <v>10</v>
       </c>
       <c r="D589" s="1">
-        <v>35013</v>
+        <v>34433</v>
       </c>
       <c r="E589" s="1">
-        <v>35201</v>
+        <v>35141</v>
       </c>
       <c r="F589" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G589" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="H589" t="s">
         <v>156</v>
       </c>
       <c r="I589">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>9</v>
       </c>
@@ -18361,13 +18367,13 @@
         <v>10</v>
       </c>
       <c r="D590" s="1">
-        <v>35141</v>
+        <v>35013</v>
       </c>
       <c r="E590" s="1">
-        <v>35210</v>
+        <v>35201</v>
       </c>
       <c r="F590" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G590" t="s">
         <v>132</v>
@@ -18376,36 +18382,36 @@
         <v>156</v>
       </c>
       <c r="I590">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="C591" t="s">
         <v>10</v>
       </c>
       <c r="D591" s="1">
-        <v>35013</v>
+        <v>35141</v>
       </c>
       <c r="E591" s="1">
-        <v>35063</v>
+        <v>35210</v>
       </c>
       <c r="F591" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G591" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="H591" t="s">
         <v>156</v>
       </c>
       <c r="I591">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>130</v>
       </c>
@@ -18413,39 +18419,39 @@
         <v>10</v>
       </c>
       <c r="D592" s="1">
-        <v>35141</v>
+        <v>35013</v>
       </c>
       <c r="E592" s="1">
-        <v>35324</v>
+        <v>35063</v>
       </c>
       <c r="F592" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G592" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="H592" t="s">
         <v>156</v>
       </c>
       <c r="I592">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="593" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="C593" t="s">
         <v>10</v>
       </c>
       <c r="D593" s="1">
-        <v>33730</v>
+        <v>35141</v>
       </c>
       <c r="E593" s="1">
-        <v>34934</v>
+        <v>35324</v>
       </c>
       <c r="F593" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G593" t="s">
         <v>170</v>
@@ -18454,88 +18460,128 @@
         <v>156</v>
       </c>
       <c r="I593">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="C594" t="s">
         <v>10</v>
       </c>
       <c r="D594" s="1">
-        <v>35013</v>
+        <v>33730</v>
       </c>
       <c r="E594" s="1">
-        <v>35066</v>
+        <v>34934</v>
       </c>
       <c r="F594" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G594" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="H594" t="s">
         <v>156</v>
       </c>
       <c r="I594">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>130</v>
+      </c>
+      <c r="C595" t="s">
+        <v>10</v>
+      </c>
+      <c r="D595" s="1">
+        <v>35013</v>
+      </c>
+      <c r="E595" s="1">
+        <v>35066</v>
+      </c>
+      <c r="F595" t="s">
+        <v>620</v>
+      </c>
+      <c r="G595" t="s">
+        <v>155</v>
+      </c>
+      <c r="H595" t="s">
+        <v>156</v>
+      </c>
+      <c r="I595">
         <v>1995</v>
-      </c>
-    </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A595" t="s">
-        <v>9</v>
-      </c>
-      <c r="C595" t="s">
-        <v>10</v>
-      </c>
-      <c r="D595" s="1">
-        <v>41356</v>
-      </c>
-      <c r="E595" s="1">
-        <v>42066</v>
-      </c>
-      <c r="F595" t="s">
-        <v>621</v>
-      </c>
-      <c r="G595" t="s">
-        <v>23</v>
-      </c>
-      <c r="H595" t="s">
-        <v>378</v>
-      </c>
-      <c r="I595">
-        <v>2013</v>
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>9</v>
       </c>
+      <c r="B596" s="1">
+        <v>38139</v>
+      </c>
       <c r="C596" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="D596" s="1">
-        <v>41356</v>
+        <v>37559</v>
       </c>
       <c r="E596" s="1">
-        <v>41893</v>
+        <v>37562</v>
       </c>
       <c r="F596" t="s">
-        <v>622</v>
+        <v>399</v>
       </c>
       <c r="G596" t="s">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="H596" t="s">
         <v>378</v>
       </c>
       <c r="I596">
-        <v>2013</v>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>130</v>
+      </c>
+      <c r="C597" t="s">
+        <v>10</v>
+      </c>
+      <c r="D597" s="1">
+        <v>37419</v>
+      </c>
+      <c r="E597" s="1">
+        <v>39226</v>
+      </c>
+      <c r="F597" t="s">
+        <v>377</v>
+      </c>
+      <c r="G597" t="s">
+        <v>170</v>
+      </c>
+      <c r="H597" t="s">
+        <v>378</v>
+      </c>
+      <c r="I597">
+        <v>2002</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I597" xr:uid="{F1D79DF1-6A4D-F944-9C36-378595C72EF2}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="K"/>
+        <filter val="S"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:I597">
+      <sortCondition ref="G1:G597"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>